--- a/Incentive_COM/result/Nguyễn Châu Hoàng Yến.xlsx
+++ b/Incentive_COM/result/Nguyễn Châu Hoàng Yến.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="127">
   <si>
     <t>KAM/KAE (Full name)</t>
   </si>
@@ -77,18 +77,24 @@
     <t>Vũ Đình Khánh Vinh</t>
   </si>
   <si>
+    <t>Lương Thanh Thảo</t>
+  </si>
+  <si>
     <t>Nguyễn Lý Thảo Quyên</t>
   </si>
   <si>
+    <t>Huỳnh Ngọc Cẩm Tú</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Huy</t>
+  </si>
+  <si>
+    <t>Tôn Vũ Anh Thư</t>
+  </si>
+  <si>
     <t>Phú Ngọc Cường</t>
   </si>
   <si>
-    <t>Huỳnh Ngọc Cẩm Tú</t>
-  </si>
-  <si>
-    <t>Nguyễn Quang Huy</t>
-  </si>
-  <si>
     <t>SHISEIDO PC</t>
   </si>
   <si>
@@ -98,30 +104,33 @@
     <t>TH TRUE MART</t>
   </si>
   <si>
+    <t>CJ INNERB</t>
+  </si>
+  <si>
+    <t>LVN CPD</t>
+  </si>
+  <si>
     <t>DERMALOGICA</t>
   </si>
   <si>
-    <t>CJ INNERB</t>
+    <t>MOLFIX</t>
+  </si>
+  <si>
+    <t>MOI</t>
+  </si>
+  <si>
+    <t>MOIRA</t>
+  </si>
+  <si>
+    <t>CETAPHIL</t>
+  </si>
+  <si>
+    <t>AMORE PACIFIC</t>
   </si>
   <si>
     <t>Groupe seb</t>
   </si>
   <si>
-    <t>AMORE PACIFIC</t>
-  </si>
-  <si>
-    <t>LVN CPD</t>
-  </si>
-  <si>
-    <t>MOI</t>
-  </si>
-  <si>
-    <t>MOIRA</t>
-  </si>
-  <si>
-    <t>CETAPHIL</t>
-  </si>
-  <si>
     <t>SENKA - TIKTOK</t>
   </si>
   <si>
@@ -140,10 +149,55 @@
     <t>TH TRUE MART - TIKTOK</t>
   </si>
   <si>
+    <t>CJ - TIKTOK</t>
+  </si>
+  <si>
+    <t>LOREAL PARIS - TIKI</t>
+  </si>
+  <si>
+    <t>MAYBELLINE - TIKI</t>
+  </si>
+  <si>
     <t>DERMALOGICA - LAZADA</t>
   </si>
   <si>
-    <t>CJ - TIKTOK</t>
+    <t>MAYBELLINE - TIKTOK</t>
+  </si>
+  <si>
+    <t>LOREAL PARIS - TIKTOK</t>
+  </si>
+  <si>
+    <t>MOLFIX - TIKTOK</t>
+  </si>
+  <si>
+    <t>M.O.I - TIKTOK</t>
+  </si>
+  <si>
+    <t>MOIRA - LAZADA</t>
+  </si>
+  <si>
+    <t>MOIRA - SHOPEE</t>
+  </si>
+  <si>
+    <t>MOIRA - TIKI</t>
+  </si>
+  <si>
+    <t>MOIRA - TIKTOK</t>
+  </si>
+  <si>
+    <t>CETAPHIL - TIKTOK</t>
+  </si>
+  <si>
+    <t>CETAPHILBABY - LANDING PAGE</t>
+  </si>
+  <si>
+    <t>CETAPHILBHR - LANDING PAGE</t>
+  </si>
+  <si>
+    <t>MISE EN SCENE - SHOPEE</t>
+  </si>
+  <si>
+    <t>MISE EN SCENE - LAZADA</t>
   </si>
   <si>
     <t>TEFAL - TIKTOK</t>
@@ -152,36 +206,6 @@
     <t>MISE EN SCENE - TIKTOK</t>
   </si>
   <si>
-    <t>MAYBELLINE - TIKTOK</t>
-  </si>
-  <si>
-    <t>LOREAL PARIS - TIKTOK</t>
-  </si>
-  <si>
-    <t>M.O.I - TIKTOK</t>
-  </si>
-  <si>
-    <t>MOIRA - LAZADA</t>
-  </si>
-  <si>
-    <t>MOIRA - SHOPEE</t>
-  </si>
-  <si>
-    <t>MOIRA - TIKI</t>
-  </si>
-  <si>
-    <t>MOIRA - TIKTOK</t>
-  </si>
-  <si>
-    <t>CETAPHIL - TIKTOK</t>
-  </si>
-  <si>
-    <t>CETAPHILBABY - LANDING PAGE</t>
-  </si>
-  <si>
-    <t>CETAPHILBHR - LANDING PAGE</t>
-  </si>
-  <si>
     <t>B2C</t>
   </si>
   <si>
@@ -191,6 +215,9 @@
     <t>Nguyễn Châu Hoàng Yến</t>
   </si>
   <si>
+    <t>Nguyễn Văn Lãm</t>
+  </si>
+  <si>
     <t>Lê Chiến Thắng</t>
   </si>
   <si>
@@ -200,130 +227,151 @@
     <t>0.00%</t>
   </si>
   <si>
-    <t>10.37%</t>
-  </si>
-  <si>
-    <t>26.99%</t>
-  </si>
-  <si>
-    <t>18.97%</t>
-  </si>
-  <si>
-    <t>25.88%</t>
-  </si>
-  <si>
-    <t>9.29%</t>
-  </si>
-  <si>
-    <t>20.94%</t>
-  </si>
-  <si>
-    <t>20.60%</t>
-  </si>
-  <si>
-    <t>60.11%</t>
-  </si>
-  <si>
-    <t>25.54%</t>
-  </si>
-  <si>
-    <t>47.85%</t>
-  </si>
-  <si>
-    <t>15.80%</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
-    <t>16.30%</t>
-  </si>
-  <si>
-    <t>51.94%</t>
-  </si>
-  <si>
-    <t>51.21%</t>
-  </si>
-  <si>
-    <t>51.52%</t>
-  </si>
-  <si>
-    <t>37.13%</t>
-  </si>
-  <si>
-    <t>246.71%</t>
-  </si>
-  <si>
-    <t>39.27%</t>
-  </si>
-  <si>
-    <t>34.79%</t>
-  </si>
-  <si>
-    <t>29.43%</t>
-  </si>
-  <si>
-    <t>50.85%</t>
-  </si>
-  <si>
-    <t>152.92%</t>
-  </si>
-  <si>
-    <t>54.97%</t>
-  </si>
-  <si>
-    <t>57.34%</t>
-  </si>
-  <si>
-    <t>25.69%</t>
-  </si>
-  <si>
-    <t>47.86%</t>
-  </si>
-  <si>
-    <t>19.17%</t>
-  </si>
-  <si>
-    <t>54.38%</t>
-  </si>
-  <si>
-    <t>704.93%</t>
-  </si>
-  <si>
-    <t>402.98%</t>
-  </si>
-  <si>
-    <t>519.98%</t>
-  </si>
-  <si>
-    <t>6154.50%</t>
-  </si>
-  <si>
-    <t>46.77%</t>
-  </si>
-  <si>
-    <t>251.09%</t>
-  </si>
-  <si>
-    <t>-18.79%</t>
-  </si>
-  <si>
-    <t>37.09%</t>
-  </si>
-  <si>
-    <t>-16.15%</t>
-  </si>
-  <si>
-    <t>183.48%</t>
-  </si>
-  <si>
-    <t>375.52%</t>
-  </si>
-  <si>
-    <t>-57.03%</t>
-  </si>
-  <si>
-    <t>185.38%</t>
+    <t>31.90%</t>
+  </si>
+  <si>
+    <t>80.66%</t>
+  </si>
+  <si>
+    <t>17.40%</t>
+  </si>
+  <si>
+    <t>35.06%</t>
+  </si>
+  <si>
+    <t>5.14%</t>
+  </si>
+  <si>
+    <t>47.66%</t>
+  </si>
+  <si>
+    <t>72.61%</t>
+  </si>
+  <si>
+    <t>349.12%</t>
+  </si>
+  <si>
+    <t>123.69%</t>
+  </si>
+  <si>
+    <t>3.44%</t>
+  </si>
+  <si>
+    <t>18.73%</t>
+  </si>
+  <si>
+    <t>80.70%</t>
+  </si>
+  <si>
+    <t>22.64%</t>
+  </si>
+  <si>
+    <t>316.97%</t>
+  </si>
+  <si>
+    <t>503.28%</t>
+  </si>
+  <si>
+    <t>398.13%</t>
+  </si>
+  <si>
+    <t>197.50%</t>
+  </si>
+  <si>
+    <t>72.15%</t>
+  </si>
+  <si>
+    <t>57.73%</t>
+  </si>
+  <si>
+    <t>34.43%</t>
+  </si>
+  <si>
+    <t>89.60%</t>
+  </si>
+  <si>
+    <t>25.38%</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>15.41%</t>
+  </si>
+  <si>
+    <t>48.48%</t>
+  </si>
+  <si>
+    <t>26.80%</t>
+  </si>
+  <si>
+    <t>47.04%</t>
+  </si>
+  <si>
+    <t>34.19%</t>
+  </si>
+  <si>
+    <t>85.00%</t>
+  </si>
+  <si>
+    <t>155.06%</t>
+  </si>
+  <si>
+    <t>134.04%</t>
+  </si>
+  <si>
+    <t>47.76%</t>
+  </si>
+  <si>
+    <t>23.42%</t>
+  </si>
+  <si>
+    <t>43.89%</t>
+  </si>
+  <si>
+    <t>135.84%</t>
+  </si>
+  <si>
+    <t>24.29%</t>
+  </si>
+  <si>
+    <t>50.57%</t>
+  </si>
+  <si>
+    <t>37.35%</t>
+  </si>
+  <si>
+    <t>91.63%</t>
+  </si>
+  <si>
+    <t>-62.00%</t>
+  </si>
+  <si>
+    <t>20.36%</t>
+  </si>
+  <si>
+    <t>417.98%</t>
+  </si>
+  <si>
+    <t>12.38%</t>
+  </si>
+  <si>
+    <t>154.10%</t>
+  </si>
+  <si>
+    <t>1549.99%</t>
+  </si>
+  <si>
+    <t>143.01%</t>
+  </si>
+  <si>
+    <t>8980.78%</t>
+  </si>
+  <si>
+    <t>1097.38%</t>
+  </si>
+  <si>
+    <t>477.80%</t>
   </si>
   <si>
     <t>Name</t>
@@ -332,16 +380,22 @@
     <t>Incentive</t>
   </si>
   <si>
-    <t>35.32%</t>
-  </si>
-  <si>
-    <t>33.11%</t>
-  </si>
-  <si>
-    <t>284.76%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
+    <t>110.81%</t>
+  </si>
+  <si>
+    <t>123.02%</t>
+  </si>
+  <si>
+    <t>63.35%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
   </si>
 </sst>
 </file>
@@ -720,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,19 +844,19 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -811,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J2" s="2">
-        <v>5224</v>
+        <v>4938</v>
       </c>
       <c r="K2" s="2">
-        <v>50400</v>
+        <v>15477.6</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -829,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P2" s="2">
-        <v>720.912</v>
+        <v>521.782</v>
       </c>
       <c r="Q2" s="2">
-        <v>6955.200000000001</v>
+        <v>1635.4664</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -849,19 +903,19 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -870,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J3" s="2">
-        <v>13494</v>
+        <v>13712</v>
       </c>
       <c r="K3" s="2">
-        <v>50000</v>
+        <v>16999.99999999998</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -888,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P3" s="2">
-        <v>1862.172</v>
+        <v>1448.901333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>6900.000000000001</v>
+        <v>1796.333333333331</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -908,19 +962,19 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -929,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J4" s="2">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="K4" s="2">
-        <v>1260</v>
+        <v>1999.999999999999</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -947,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P4" s="2">
-        <v>32.982</v>
+        <v>36.77200000000001</v>
       </c>
       <c r="Q4" s="2">
-        <v>173.88</v>
+        <v>211.3333333333332</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -967,19 +1021,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -988,16 +1042,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J5" s="2">
-        <v>12941</v>
+        <v>6310</v>
       </c>
       <c r="K5" s="2">
-        <v>50000</v>
+        <v>17999.99999999999</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1006,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P5" s="2">
-        <v>1785.858</v>
+        <v>653.085</v>
       </c>
       <c r="Q5" s="2">
-        <v>6900.000000000001</v>
+        <v>1862.999999999999</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1026,19 +1080,19 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1047,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J6" s="2">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2">
-        <v>1260</v>
+        <v>699.9999999999998</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1065,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P6" s="2">
-        <v>16.146</v>
+        <v>3.726</v>
       </c>
       <c r="Q6" s="2">
-        <v>173.88</v>
+        <v>72.44999999999999</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1091,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1106,16 +1160,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J7" s="3">
-        <v>32015</v>
+        <v>25344</v>
       </c>
       <c r="K7" s="3">
-        <v>152920</v>
+        <v>53177.59999999998</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -1124,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P7" s="3">
-        <v>4418.070000000001</v>
+        <v>2664.266333333333</v>
       </c>
       <c r="Q7" s="3">
-        <v>21102.96</v>
+        <v>5578.583066666663</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1144,19 +1198,19 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1165,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J8" s="2">
-        <v>38778</v>
+        <v>14522</v>
       </c>
       <c r="K8" s="2">
-        <v>188200</v>
+        <v>19999.99999999999</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1183,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P8" s="2">
-        <v>3373.686</v>
+        <v>1263.414</v>
       </c>
       <c r="Q8" s="2">
-        <v>16373.4</v>
+        <v>1739.999999999999</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1203,19 +1257,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1224,16 +1278,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J9" s="2">
-        <v>16155</v>
+        <v>15822</v>
       </c>
       <c r="K9" s="2">
-        <v>26877</v>
+        <v>4531.999999999988</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1242,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P9" s="2">
-        <v>1453.95</v>
+        <v>1376.514</v>
       </c>
       <c r="Q9" s="2">
-        <v>2418.93</v>
+        <v>394.283999999999</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1268,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1283,16 +1337,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J10" s="3">
-        <v>54933</v>
+        <v>30344</v>
       </c>
       <c r="K10" s="3">
-        <v>215077</v>
+        <v>24531.99999999998</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -1301,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P10" s="3">
-        <v>4827.636</v>
+        <v>2639.928</v>
       </c>
       <c r="Q10" s="3">
-        <v>18792.33</v>
+        <v>2134.283999999998</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1321,19 +1375,19 @@
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1342,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J11" s="2">
-        <v>9571</v>
+        <v>1311</v>
       </c>
       <c r="K11" s="2">
-        <v>20000</v>
+        <v>38087</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1360,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P11" s="2">
-        <v>1263.372</v>
+        <v>107.502</v>
       </c>
       <c r="Q11" s="2">
-        <v>2640</v>
+        <v>3123.134</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1380,19 +1434,19 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1401,16 +1455,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2">
-        <v>7900</v>
+        <v>1373</v>
       </c>
       <c r="K12" s="2">
-        <v>50000</v>
+        <v>7329</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -1419,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P12" s="2">
-        <v>869</v>
+        <v>112.586</v>
       </c>
       <c r="Q12" s="2">
-        <v>5500</v>
+        <v>600.9780000000001</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1439,19 +1493,19 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1460,16 +1514,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2">
-        <v>103</v>
+        <v>10563</v>
       </c>
       <c r="K13" s="2">
-        <v>37800</v>
+        <v>13090</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -1478,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P13" s="2">
-        <v>8.24</v>
+        <v>918.9809999999999</v>
       </c>
       <c r="Q13" s="2">
-        <v>3024</v>
+        <v>1138.83</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1498,13 +1552,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1519,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J14" s="3">
-        <v>17574</v>
+        <v>13247</v>
       </c>
       <c r="K14" s="3">
-        <v>107800</v>
+        <v>58506</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1537,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P14" s="3">
-        <v>2140.612</v>
+        <v>1139.069</v>
       </c>
       <c r="Q14" s="3">
-        <v>11164</v>
+        <v>4862.942</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1557,19 +1611,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1578,16 +1632,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J15" s="2">
-        <v>75315</v>
+        <v>82124</v>
       </c>
       <c r="K15" s="2">
-        <v>145000</v>
+        <v>25908.99999999996</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -1596,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P15" s="2">
-        <v>5874.57</v>
+        <v>9033.639999999999</v>
       </c>
       <c r="Q15" s="2">
-        <v>11310</v>
+        <v>2849.989999999995</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1616,19 +1670,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1637,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2">
-        <v>103246</v>
+        <v>100655</v>
       </c>
       <c r="K16" s="2">
-        <v>201600</v>
+        <v>19999.99999999997</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -1655,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P16" s="2">
-        <v>8053.188</v>
+        <v>11072.05</v>
       </c>
       <c r="Q16" s="2">
-        <v>15724.8</v>
+        <v>2199.999999999997</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1681,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1696,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J17" s="3">
-        <v>178561</v>
+        <v>182779</v>
       </c>
       <c r="K17" s="3">
-        <v>346600</v>
+        <v>45908.99999999993</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1714,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P17" s="3">
-        <v>13927.758</v>
+        <v>20105.69</v>
       </c>
       <c r="Q17" s="3">
-        <v>27034.8</v>
+        <v>5049.989999999993</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1737,16 +1791,16 @@
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1755,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J18" s="2">
-        <v>3713</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>10000</v>
+        <v>4999.999999999994</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -1773,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P18" s="2">
-        <v>360.161</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>970</v>
+        <v>484.9999999999994</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1796,16 +1850,16 @@
         <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1814,16 +1868,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J19" s="2">
-        <v>6069</v>
+        <v>3950</v>
       </c>
       <c r="K19" s="2">
-        <v>2460</v>
+        <v>1999.999999999999</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -1832,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P19" s="2">
-        <v>182.07</v>
+        <v>434.5</v>
       </c>
       <c r="Q19" s="2">
-        <v>73.8</v>
+        <v>219.9999999999999</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1852,19 +1906,19 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1873,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J20" s="2">
-        <v>966</v>
+        <v>3607</v>
       </c>
       <c r="K20" s="2">
-        <v>2460</v>
+        <v>4999.612903225804</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -1891,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P20" s="2">
-        <v>28.98</v>
+        <v>108.21</v>
       </c>
       <c r="Q20" s="2">
-        <v>73.8</v>
+        <v>149.9883870967741</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1911,19 +1965,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1932,16 +1986,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J21" s="2">
-        <v>958</v>
+        <v>1732</v>
       </c>
       <c r="K21" s="2">
-        <v>2754</v>
+        <v>3000</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -1950,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P21" s="2">
-        <v>28.74</v>
+        <v>51.96</v>
       </c>
       <c r="Q21" s="2">
-        <v>82.61999999999999</v>
+        <v>90</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1970,19 +2024,19 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1991,16 +2045,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J22" s="2">
-        <v>1854</v>
+        <v>1033</v>
       </c>
       <c r="K22" s="2">
-        <v>6300</v>
+        <v>3000</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -2009,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P22" s="2">
-        <v>55.62</v>
+        <v>30.99</v>
       </c>
       <c r="Q22" s="2">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2032,16 +2086,16 @@
         <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -2050,16 +2104,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J23" s="2">
-        <v>7627</v>
+        <v>896</v>
       </c>
       <c r="K23" s="2">
-        <v>15000</v>
+        <v>999.9999999999999</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -2068,19 +2122,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P23" s="2">
-        <v>988.4591999999999</v>
+        <v>26.88</v>
       </c>
       <c r="Q23" s="2">
-        <v>1944</v>
+        <v>30</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2088,19 +2142,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -2109,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J24" s="2">
-        <v>1988</v>
+        <v>1269</v>
       </c>
       <c r="K24" s="2">
-        <v>1299.999999999999</v>
+        <v>4999.99999999999</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -2127,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P24" s="2">
-        <v>257.6448</v>
+        <v>139.59</v>
       </c>
       <c r="Q24" s="2">
-        <v>168.4799999999999</v>
+        <v>549.9999999999989</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2147,117 +2201,530 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1199.999999999999</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>131.9999999999999</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="2">
+        <v>131</v>
+      </c>
+      <c r="K26" s="2">
+        <v>850</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="2">
+        <v>14.41</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="3">
+        <v>12630</v>
+      </c>
+      <c r="K27" s="3">
+        <v>26049.61290322578</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="3">
+        <v>807.8600000000001</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1840.488387096772</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="2">
+        <v>9693</v>
+      </c>
+      <c r="K28" s="2">
+        <v>36164.40154506431</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="2">
+        <v>843.2909999999998</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>3146.302934420594</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="2">
-        <v>1924</v>
-      </c>
-      <c r="K25" s="2">
-        <v>3499.999999999979</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" s="2">
-        <v>249.3504</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>453.5999999999972</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="2">
+        <v>9785</v>
+      </c>
+      <c r="K29" s="2">
+        <v>20803.4897424892</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="2">
+        <v>851.2949999999998</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1809.90360759656</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
         <v>2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="D30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="3">
-        <v>25099</v>
-      </c>
-      <c r="K26" s="3">
-        <v>43773.99999999998</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="3">
-        <v>2151.0254</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>3955.299999999997</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>102</v>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="3">
+        <v>19478</v>
+      </c>
+      <c r="K30" s="3">
+        <v>56967.89128755352</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1694.586</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>4956.206542017155</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2550</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2999.999999999998</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" s="2">
+        <v>247.35</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>290.9999999999998</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="2">
+        <v>10854</v>
+      </c>
+      <c r="K32" s="2">
+        <v>6999.999999999999</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1193.94</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>769.9999999999999</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="3">
+        <v>13404</v>
+      </c>
+      <c r="K33" s="3">
+        <v>9999.999999999996</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1441.29</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1061</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2267,7 +2734,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2275,7 +2742,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -2317,7 +2784,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2328,31 +2795,31 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>32015</v>
+        <v>25344</v>
       </c>
       <c r="F2" s="2">
-        <v>152920</v>
+        <v>53177.59999999998</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>4418.070000000001</v>
+        <v>2664.266333333333</v>
       </c>
       <c r="L2" s="2">
-        <v>21102.96</v>
+        <v>5578.583066666663</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2363,31 +2830,31 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>54933</v>
+        <v>30344</v>
       </c>
       <c r="F3" s="2">
-        <v>215077</v>
+        <v>24531.99999999998</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>4827.636</v>
+        <v>2639.928</v>
       </c>
       <c r="L3" s="2">
-        <v>18792.33</v>
+        <v>2134.283999999998</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2398,31 +2865,31 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>17574</v>
+        <v>13247</v>
       </c>
       <c r="F4" s="2">
-        <v>107800</v>
+        <v>58506</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
-        <v>2140.612</v>
+        <v>1139.069</v>
       </c>
       <c r="L4" s="2">
-        <v>11164</v>
+        <v>4862.942</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2433,31 +2900,31 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>178561</v>
+        <v>182779</v>
       </c>
       <c r="F5" s="2">
-        <v>346600</v>
+        <v>45908.99999999993</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
-        <v>13927.758</v>
+        <v>20105.69</v>
       </c>
       <c r="L5" s="2">
-        <v>27034.8</v>
+        <v>5049.989999999993</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2468,66 +2935,136 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>25099</v>
+        <v>12630</v>
       </c>
       <c r="F6" s="2">
-        <v>43773.99999999998</v>
+        <v>26049.61290322578</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>2151.0254</v>
+        <v>807.8600000000001</v>
       </c>
       <c r="L6" s="2">
-        <v>3955.299999999997</v>
+        <v>1840.488387096772</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>304270</v>
-      </c>
-      <c r="F7" s="4">
-        <v>861371</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>26958.10620000001</v>
-      </c>
-      <c r="L7" s="4">
-        <v>81427.31000000001</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>60</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>19478</v>
+      </c>
+      <c r="F7" s="2">
+        <v>56967.89128755352</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>1694.586</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4956.206542017155</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>13404</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9999.999999999996</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>1441.29</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1061</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>297083</v>
+      </c>
+      <c r="F9" s="4">
+        <v>268092.1041907792</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>30476.95933333333</v>
+      </c>
+      <c r="L9" s="4">
+        <v>24772.99399578058</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
